--- a/results/timeperiod_results.xlsx
+++ b/results/timeperiod_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>terminator</t>
   </si>
@@ -51,10 +51,55 @@
     <t>lethal weapon 3</t>
   </si>
   <si>
-    <t>non normalized laplacian threshold 28 alpha 0.6</t>
-  </si>
-  <si>
     <t>normalized laplacian threshold 28 alpha 0.6</t>
+  </si>
+  <si>
+    <t>%action movies from 80s</t>
+  </si>
+  <si>
+    <t>%49 the terminator (1984)</t>
+  </si>
+  <si>
+    <t>%66 die hard (1988)</t>
+  </si>
+  <si>
+    <t>%277 Robocop (1987)</t>
+  </si>
+  <si>
+    <t>%313 Lethal weapon (1987)</t>
+  </si>
+  <si>
+    <t>%293 predator (1987)</t>
+  </si>
+  <si>
+    <t>%action movies from 2000s</t>
+  </si>
+  <si>
+    <t>%214 mission impossible 2 (2000)</t>
+  </si>
+  <si>
+    <t>%248 the bourne identity (2002)</t>
+  </si>
+  <si>
+    <t>%477 black hawk down</t>
+  </si>
+  <si>
+    <t>%290 Kill bill 2</t>
+  </si>
+  <si>
+    <t>%498 lethal weapon 3</t>
+  </si>
+  <si>
+    <t>non normalized laplacian threshold 28 alpha 1.8141e-04</t>
+  </si>
+  <si>
+    <t>intraclass/interclass ratio</t>
+  </si>
+  <si>
+    <t>non normalized laplacian threshold 28 alpha 4.5354e-04</t>
+  </si>
+  <si>
+    <t>normalized laplacian threshold 28 alpha 1.5</t>
   </si>
 </sst>
 </file>
@@ -93,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,22 +161,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -138,19 +230,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>823376</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>546099</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="temp.jpg"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="temp.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -169,8 +261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9903876" y="165100"/>
-          <a:ext cx="7977723" cy="5638800"/>
+          <a:off x="12649200" y="6096000"/>
+          <a:ext cx="7112000" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -183,18 +275,18 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="temp.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="temp.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -213,7 +305,95 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="6667500"/>
+          <a:off x="9906000" y="190500"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="temp.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12509500" y="12547600"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="temp.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12661900" y="18859500"/>
           <a:ext cx="7112000" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -548,17 +728,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -599,31 +783,31 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>4.0740999999999998E-4</v>
+        <v>0.65571999999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0970999999999999E-3</v>
+        <v>0.94098999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>7.2953000000000004E-4</v>
+        <v>0.85780999999999996</v>
       </c>
       <c r="F3" s="1">
-        <v>5.2397000000000001E-4</v>
+        <v>0.77593999999999996</v>
       </c>
       <c r="G3" s="1">
-        <v>7.1013999999999995E-4</v>
+        <v>0.84736999999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>9.5147999999999999E-4</v>
+        <v>0.91486999999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>8.7454999999999998E-4</v>
+        <v>0.90234000000000003</v>
       </c>
       <c r="J3" s="1">
-        <v>4.8171999999999999E-4</v>
+        <v>0.73543999999999998</v>
       </c>
       <c r="K3" s="1">
-        <v>1.2063E-3</v>
+        <v>0.95469000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,34 +815,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>4.0740999999999998E-4</v>
+        <v>0.65571999999999997</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0679000000000001E-3</v>
+        <v>0.85763999999999996</v>
       </c>
       <c r="E4" s="1">
-        <v>6.5642000000000001E-4</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="F4" s="1">
-        <v>4.3629999999999998E-4</v>
+        <v>0.67139000000000004</v>
       </c>
       <c r="G4" s="1">
-        <v>6.3836000000000003E-4</v>
+        <v>0.75136000000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>8.8668999999999998E-4</v>
+        <v>0.82352999999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>8.0818000000000003E-4</v>
+        <v>0.80998999999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>3.6029999999999998E-4</v>
+        <v>0.62205999999999995</v>
       </c>
       <c r="K4" s="1">
-        <v>1.1559999999999999E-3</v>
+        <v>0.86738000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,34 +850,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0970999999999999E-3</v>
+        <v>0.94098999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0679000000000001E-3</v>
+        <v>0.85763999999999996</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1.2274E-3</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>1.1052E-3</v>
+        <v>0.95216999999999996</v>
       </c>
       <c r="G5" s="1">
-        <v>1.2160999999999999E-3</v>
+        <v>1.0143</v>
       </c>
       <c r="H5" s="1">
-        <v>1.3753000000000001E-3</v>
+        <v>1.0692999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>1.3276E-3</v>
+        <v>1.0588</v>
       </c>
       <c r="J5" s="1">
-        <v>1.0991E-3</v>
+        <v>0.91961000000000004</v>
       </c>
       <c r="K5" s="1">
-        <v>1.5562E-3</v>
+        <v>1.1033999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,34 +885,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>7.2953000000000004E-4</v>
+        <v>0.85780999999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>6.5642000000000001E-4</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>1.2274E-3</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>7.3731000000000003E-4</v>
+        <v>0.86951000000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>8.3221E-4</v>
+        <v>0.93057999999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>1.0441999999999999E-3</v>
+        <v>0.99041000000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0269000000000001E-3</v>
+        <v>0.98343000000000003</v>
       </c>
       <c r="J6" s="1">
-        <v>7.2409000000000004E-4</v>
+        <v>0.83504999999999996</v>
       </c>
       <c r="K6" s="1">
-        <v>1.2335E-3</v>
+        <v>1.0219</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -736,34 +920,34 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>5.2397000000000001E-4</v>
+        <v>0.77593999999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>4.3629999999999998E-4</v>
+        <v>0.67139000000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>1.1052E-3</v>
+        <v>0.95216999999999996</v>
       </c>
       <c r="E7" s="1">
-        <v>7.3731000000000003E-4</v>
+        <v>0.86951000000000001</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>7.1571000000000004E-4</v>
+        <v>0.85911999999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>9.5938000000000002E-4</v>
+        <v>0.92608999999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>8.9285999999999999E-4</v>
+        <v>0.91407000000000005</v>
       </c>
       <c r="J7" s="1">
-        <v>5.1177000000000004E-4</v>
+        <v>0.74973999999999996</v>
       </c>
       <c r="K7" s="1">
-        <v>1.2076000000000001E-3</v>
+        <v>0.96530000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -771,34 +955,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>7.1013999999999995E-4</v>
+        <v>0.84736999999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>6.3836000000000003E-4</v>
+        <v>0.75136000000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>1.2160999999999999E-3</v>
+        <v>1.0143</v>
       </c>
       <c r="E8" s="1">
-        <v>8.3221E-4</v>
+        <v>0.93057999999999996</v>
       </c>
       <c r="F8" s="1">
-        <v>7.1571000000000004E-4</v>
+        <v>0.85911999999999999</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1.0221E-3</v>
+        <v>0.98053000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0168E-3</v>
+        <v>0.97426000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>7.1102999999999997E-4</v>
+        <v>0.82433999999999996</v>
       </c>
       <c r="K8" s="1">
-        <v>1.2389E-3</v>
+        <v>1.0173000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -806,34 +990,34 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>9.5147999999999999E-4</v>
+        <v>0.91486999999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>8.8668999999999998E-4</v>
+        <v>0.82352999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>1.3753000000000001E-3</v>
+        <v>1.0692999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0441999999999999E-3</v>
+        <v>0.99041000000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>9.5938000000000002E-4</v>
+        <v>0.92608999999999997</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0221E-3</v>
+        <v>0.98053000000000001</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1.1838E-3</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>9.3744E-4</v>
+        <v>0.89063999999999999</v>
       </c>
       <c r="K9" s="1">
-        <v>1.4142E-3</v>
+        <v>1.0763</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -841,34 +1025,34 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>8.7454999999999998E-4</v>
+        <v>0.90234000000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>8.0818000000000003E-4</v>
+        <v>0.80998999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>1.3276E-3</v>
+        <v>1.0588</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0269000000000001E-3</v>
+        <v>0.98343000000000003</v>
       </c>
       <c r="F10" s="1">
-        <v>8.9285999999999999E-4</v>
+        <v>0.91407000000000005</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0168E-3</v>
+        <v>0.97426000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1.1838E-3</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>8.4486999999999995E-4</v>
+        <v>0.87744</v>
       </c>
       <c r="K10" s="1">
-        <v>1.4074000000000001E-3</v>
+        <v>1.0666</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -876,34 +1060,34 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>4.8171999999999999E-4</v>
+        <v>0.73543999999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>3.6029999999999998E-4</v>
+        <v>0.62205999999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0991E-3</v>
+        <v>0.91961000000000004</v>
       </c>
       <c r="E11" s="1">
-        <v>7.2409000000000004E-4</v>
+        <v>0.83504999999999996</v>
       </c>
       <c r="F11" s="1">
-        <v>5.1177000000000004E-4</v>
+        <v>0.74973999999999996</v>
       </c>
       <c r="G11" s="1">
-        <v>7.1102999999999997E-4</v>
+        <v>0.82433999999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>9.3744E-4</v>
+        <v>0.89063999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>8.4486999999999995E-4</v>
+        <v>0.87744</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1.204E-3</v>
+        <v>0.93169999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -911,39 +1095,52 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>1.2063E-3</v>
+        <v>0.95469000000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1.1559999999999999E-3</v>
+        <v>0.86738000000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>1.5562E-3</v>
+        <v>1.1033999999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>1.2335E-3</v>
+        <v>1.0219</v>
       </c>
       <c r="F12" s="1">
-        <v>1.2076000000000001E-3</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="G12" s="1">
-        <v>1.2389E-3</v>
+        <v>1.0173000000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1.4142E-3</v>
+        <v>1.0763</v>
       </c>
       <c r="I12" s="1">
-        <v>1.4074000000000001E-3</v>
+        <v>1.0666</v>
       </c>
       <c r="J12" s="1">
-        <v>1.204E-3</v>
+        <v>0.93169999999999997</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="V35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -975,8 +1172,11 @@
       <c r="K36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="V36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1010,8 +1210,11 @@
       <c r="K37" s="1">
         <v>0.88627999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="V37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1045,8 +1248,11 @@
       <c r="K38" s="1">
         <v>0.88170999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="V38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1080,8 +1286,11 @@
       <c r="K39" s="1">
         <v>0.88612000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="V39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1115,8 +1324,11 @@
       <c r="K40" s="1">
         <v>0.87385000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="V40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1150,8 +1362,9 @@
       <c r="K41" s="1">
         <v>0.88602000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1185,8 +1398,9 @@
       <c r="K42" s="1">
         <v>0.87987000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1220,8 +1434,11 @@
       <c r="K43" s="1">
         <v>0.88563000000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="V43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1255,8 +1472,11 @@
       <c r="K44" s="1">
         <v>0.88621000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="V44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1290,8 +1510,11 @@
       <c r="K45" s="1">
         <v>0.88646000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="V45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1324,6 +1547,813 @@
       </c>
       <c r="K46" s="1">
         <v>0</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="V47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="V48" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.65774999999999995</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.54866000000000004</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.46311000000000002</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.53688999999999998</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.61997999999999998</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.60267999999999999</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.42937999999999998</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.67742999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.60882999999999998</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.48468</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.38811000000000001</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.47171999999999997</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.54251000000000005</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.34381</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.62368000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.65774999999999995</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.60882999999999998</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.73207</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.66622999999999999</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.72343999999999997</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.78561000000000003</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.77229000000000003</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.64426000000000005</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.83130999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.54866000000000004</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.48468</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.73207</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.55805000000000005</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.61563999999999997</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.68725000000000003</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.67852000000000001</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.53234000000000004</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.73173999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.46311000000000002</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.38811000000000001</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.66622999999999999</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.55805000000000005</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.54632000000000003</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.62868000000000002</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.44277</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.68503999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.53688999999999998</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.47171999999999997</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.72343999999999997</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.61563999999999997</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.54632000000000003</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.67671000000000003</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.66903999999999997</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.52039000000000002</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.72833000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.61997999999999998</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.78561000000000003</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.68725000000000003</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.62868000000000002</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.67671000000000003</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.73462000000000005</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.60253000000000001</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.79525000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.60267999999999999</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.54251000000000005</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.77229000000000003</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.67852000000000001</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.66903999999999997</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.73462000000000005</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.58387</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.78427000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.42937999999999998</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.34381</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.64426000000000005</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.53234000000000004</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.44277</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.52039000000000002</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.60253000000000001</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.58387</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.66200999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.67742999999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.62368000000000001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.83130999999999999</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.73173999999999995</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.68503999999999998</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.72833000000000003</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.79525000000000001</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.78427000000000002</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.66200999999999999</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.56749000000000005</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.56196000000000002</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.56342999999999999</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.56864000000000003</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.57072999999999996</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.56957000000000002</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.56708000000000003</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.57050999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.56749000000000005</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.56721999999999995</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.56662999999999997</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.56686999999999999</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.56816999999999995</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.56752999999999998</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.56915000000000004</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.56860999999999995</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.56679000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.56196000000000002</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.56721999999999995</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.56984000000000001</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.56267</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.57176000000000005</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.57025000000000003</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.56882999999999995</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.56503000000000003</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.56982999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.56662999999999997</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.56984000000000001</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.56679000000000002</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.56388000000000005</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.56459000000000004</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0.57118000000000002</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0.55581999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.56342999999999999</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.56686999999999999</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.56267</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.56679000000000002</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.56774999999999998</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.57064000000000004</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0.57045000000000001</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0.56759000000000004</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0.56996999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.56864000000000003</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.56816999999999995</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.57176000000000005</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0.56388000000000005</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.56774999999999998</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.56455999999999995</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.57264000000000004</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.57320000000000004</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0.56286999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.57072999999999996</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.56752999999999998</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.57025000000000003</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0.56459000000000004</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.57064000000000004</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.56455999999999995</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0.56954000000000005</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0.57057000000000002</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0.56884000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.56957000000000002</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.56915000000000004</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.56882999999999995</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.57045000000000001</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.57264000000000004</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.56954000000000005</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0.56847000000000003</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0.57018000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.56708000000000003</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0.56860999999999995</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.56503000000000003</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0.57118000000000002</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.56759000000000004</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.57320000000000004</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.57057000000000002</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.56847000000000003</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0.57106999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.57050999999999996</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.56679000000000002</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.56982999999999995</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0.55581999999999998</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.56996999999999998</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.56286999999999998</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.56884000000000001</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.57018000000000002</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0.57106999999999997</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118">
+        <v>0.999</v>
       </c>
     </row>
   </sheetData>
